--- a/odrweb/data/gentestdata.xlsx
+++ b/odrweb/data/gentestdata.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/odrtools/odrweb/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22560" windowHeight="13960" tabRatio="715"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22560" windowHeight="13965" tabRatio="715"/>
   </bookViews>
   <sheets>
     <sheet name="gentestdata" sheetId="21" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,10 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
-    <t>假一赔十</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>disputer_tel</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -53,13 +41,141 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>agent_b_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jf_appeal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant_name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>world_credit_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant_tel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant_addr</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>13913031374</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业或机构名称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>disputer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>disputer_name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>disputer_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调解员-登记纠纷提交-申非法人组织代理人-被自然人代理人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法人组织</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcde1234567890</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱桂林</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1栋2单元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxcvbnmasdfghjk123</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10栋1单元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐传珠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>15295745648</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>段志勇</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>15895996954</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant_pwd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11111111</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>王发明</t>
+    <rPh sb="0" eb="1">
+      <t>wang'fa'm</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>jf_desc</t>
+    </r>
     <r>
       <rPr>
         <sz val="9.8000000000000007"/>
-        <color rgb="FFA5C261"/>
+        <color rgb="FFE6DB74"/>
         <rFont val="Monaco"/>
         <family val="2"/>
       </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>agent_type</t>
     </r>
     <r>
@@ -75,7 +191,52 @@
   </si>
   <si>
     <r>
-      <t>jf_desc</t>
+      <t>agent_b_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA5C261"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>applicant_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA5C261"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>disputer_world_credit_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA5C261"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>disputer_addr</t>
     </r>
     <r>
       <rPr>
@@ -90,13 +251,22 @@
   </si>
   <si>
     <r>
+      <t>agent_name</t>
+    </r>
+    <r>
       <rPr>
         <sz val="9.8000000000000007"/>
-        <color rgb="FFA5C261"/>
+        <color rgb="FFE6DB74"/>
         <rFont val="Monaco"/>
         <family val="2"/>
       </rPr>
-      <t>agent_b_type</t>
+      <t/>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>agent_tel</t>
     </r>
     <r>
       <rPr>
@@ -110,38 +280,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>agent_b_id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jf_appeal</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicant_name</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>world_credit_id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicant</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicant_tel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
+    <r>
+      <t>agent_b_name</t>
+    </r>
     <r>
       <rPr>
         <sz val="9.8000000000000007"/>
-        <color rgb="FFA5C261"/>
+        <color rgb="FFE6DB74"/>
         <rFont val="Monaco"/>
         <family val="2"/>
       </rPr>
-      <t>applicant_id</t>
+      <t/>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>agent_b_tel</t>
     </r>
     <r>
       <rPr>
@@ -155,224 +310,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>applicant_addr</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>13913031374</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业或机构名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>disputer</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>disputer_world_credit_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>disputer_name</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>disputer_id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>disputer_addr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFE6DB74"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>agent_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFE6DB74"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>agent_tel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>agent_id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>agent_b_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFE6DB74"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t>agent_b_tel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA5C261"/>
-        <rFont val="Monaco"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>调解员-登记纠纷提交-申非法人组织代理人-被自然人代理人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法人组织</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>special</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcde1234567890</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>钱桂林</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1栋2单元</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zxcvbnmasdfghjk123</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10栋1单元</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐传珠</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>15295745648</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>段志勇</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>15895996954</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicant_pwd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>11111111</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>王发明</t>
-    <rPh sb="0" eb="1">
-      <t>wang'fa'm</t>
-    </rPh>
+    <t>申请个人</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -561,9 +499,11 @@
     </font>
     <font>
       <sz val="9.8000000000000007"/>
-      <color rgb="FFCC7832"/>
-      <name val="Monaco"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -991,7 +931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,9 +941,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1015,24 +952,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1040,12 +977,6 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1053,6 +984,12 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
@@ -1326,7 +1263,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1337,243 +1274,243 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="4"/>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4"/>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
